--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="806"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="806"/>
   </bookViews>
   <sheets>
     <sheet name="add_user" sheetId="23" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="sso" sheetId="22" r:id="rId18"/>
     <sheet name="add_strategy" sheetId="24" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -2236,21 +2236,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B27" sqref="A27:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
-    <col min="10" max="11" width="14.25" customWidth="1"/>
-    <col min="13" max="13" width="15.75" customWidth="1"/>
-    <col min="14" max="14" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="10" max="11" width="14.21875" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
+    <col min="14" max="14" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3665,14 +3665,14 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="15.6">
       <c r="A2" s="11">
         <v>4</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25">
+    <row r="3" spans="1:3" ht="15.6">
       <c r="A3" s="11">
         <v>4</v>
       </c>
@@ -3719,14 +3719,14 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="15.6">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -3762,10 +3762,10 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -3845,13 +3845,13 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -4083,11 +4083,11 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4174,12 +4174,12 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4237,11 +4237,11 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4289,20 +4289,20 @@
       <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="13.125" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75">
+    <row r="1" spans="1:21" ht="17.399999999999999">
       <c r="A1" s="18" t="s">
         <v>141</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.25">
+    <row r="2" spans="1:21" ht="15.6">
       <c r="A2" s="19" t="s">
         <v>161</v>
       </c>
@@ -4408,7 +4408,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="14.25">
+    <row r="3" spans="1:21" ht="15.6">
       <c r="A3" s="19" t="s">
         <v>167</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.25">
+    <row r="4" spans="1:21" ht="15.6">
       <c r="A4" s="19" t="s">
         <v>183</v>
       </c>
@@ -4518,13 +4518,13 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -4585,20 +4585,20 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:10" ht="17.399999999999999">
       <c r="A1" s="18" t="s">
         <v>238</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="27">
+    <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="3" t="s">
         <v>228</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="27">
+    <row r="3" spans="1:10" ht="28.8">
       <c r="A3" s="3" t="s">
         <v>242</v>
       </c>
@@ -4709,14 +4709,14 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="15.6">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25">
+    <row r="3" spans="1:3" ht="15.6">
       <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25">
+    <row r="4" spans="1:3" ht="15.6">
       <c r="A4" s="7" t="s">
         <v>48</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25">
+    <row r="5" spans="1:3" ht="15.6">
       <c r="A5" s="7" t="s">
         <v>48</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25">
+    <row r="6" spans="1:3" ht="15.6">
       <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25">
+    <row r="7" spans="1:3" ht="15.6">
       <c r="A7" s="7" t="s">
         <v>48</v>
       </c>
@@ -4807,29 +4807,29 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
-    <col min="11" max="11" width="6.75" customWidth="1"/>
-    <col min="12" max="12" width="9.125" customWidth="1"/>
-    <col min="13" max="13" width="36.875" customWidth="1"/>
-    <col min="14" max="14" width="12.875" customWidth="1"/>
-    <col min="15" max="15" width="26.75" customWidth="1"/>
-    <col min="16" max="16" width="22.375" customWidth="1"/>
-    <col min="17" max="17" width="18.25" customWidth="1"/>
-    <col min="18" max="18" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="36.88671875" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="26.77734375" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.21875" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75">
+    <row r="1" spans="1:14" ht="17.399999999999999">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.25">
+    <row r="2" spans="1:14" ht="15.6">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -4907,7 +4907,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="14.25">
+    <row r="3" spans="1:14" ht="15.6">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -4933,7 +4933,7 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" ht="14.25">
+    <row r="4" spans="1:14" ht="15.6">
       <c r="A4" s="7" t="s">
         <v>63</v>
       </c>
@@ -4969,7 +4969,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="14.25">
+    <row r="5" spans="1:14" ht="15.6">
       <c r="A5" s="7" t="s">
         <v>63</v>
       </c>
@@ -5003,7 +5003,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25">
+    <row r="6" spans="1:14" ht="15.6">
       <c r="A6" s="7" t="s">
         <v>73</v>
       </c>
@@ -5063,7 +5063,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="14.25">
+    <row r="8" spans="1:14" ht="15.6">
       <c r="A8" s="7" t="s">
         <v>311</v>
       </c>
@@ -5143,7 +5143,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="14.25" hidden="1">
+    <row r="11" spans="1:14" ht="15.6" hidden="1">
       <c r="A11" s="26" t="s">
         <v>206</v>
       </c>
@@ -5179,7 +5179,7 @@
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
     </row>
-    <row r="12" spans="1:14" ht="14.25">
+    <row r="12" spans="1:14" ht="15.6">
       <c r="A12" s="26" t="s">
         <v>263</v>
       </c>
@@ -5213,7 +5213,7 @@
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25">
+    <row r="13" spans="1:14" ht="15.6">
       <c r="A13" s="26" t="s">
         <v>263</v>
       </c>
@@ -5247,7 +5247,7 @@
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="1:14" ht="14.25">
+    <row r="14" spans="1:14" ht="15.6">
       <c r="A14" s="26" t="s">
         <v>263</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25">
+    <row r="15" spans="1:14" ht="15.6">
       <c r="A15" s="7" t="s">
         <v>115</v>
       </c>
@@ -5305,7 +5305,7 @@
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25">
+    <row r="16" spans="1:14" ht="15.6">
       <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
@@ -5339,7 +5339,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" ht="14.25">
+    <row r="17" spans="1:14" ht="15.6">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" ht="14.25">
+    <row r="18" spans="1:14" ht="15.6">
       <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
@@ -5389,7 +5389,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" ht="14.25">
+    <row r="19" spans="1:14" ht="15.6">
       <c r="A19" s="7" t="s">
         <v>311</v>
       </c>
@@ -5413,7 +5413,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="14.25">
+    <row r="20" spans="1:14" ht="15.6">
       <c r="A20" s="7" t="s">
         <v>163</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
     </row>
-    <row r="21" spans="1:14" ht="14.25">
+    <row r="21" spans="1:14" ht="15.6">
       <c r="A21" s="7" t="s">
         <v>168</v>
       </c>
@@ -5461,7 +5461,7 @@
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
     </row>
-    <row r="22" spans="1:14" ht="14.25">
+    <row r="22" spans="1:14" ht="15.6">
       <c r="A22" s="7" t="s">
         <v>185</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
     </row>
-    <row r="23" spans="1:14" ht="14.25">
+    <row r="23" spans="1:14" ht="15.6">
       <c r="A23" s="34" t="s">
         <v>333</v>
       </c>
@@ -5533,12 +5533,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -5584,13 +5584,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" spans="1:2" ht="17.399999999999999">
       <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25">
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="7" t="s">
         <v>42</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25">
+    <row r="4" spans="1:2" ht="15.6">
       <c r="A4" s="7" t="s">
         <v>43</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25">
+    <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25">
+    <row r="6" spans="1:2" ht="15.6">
       <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25">
+    <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="7" t="s">
         <v>46</v>
       </c>
@@ -5660,16 +5660,16 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="17.399999999999999">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="7" t="s">
         <v>68</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25">
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="7" t="s">
         <v>78</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="3" t="s">
         <v>80</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25">
+    <row r="5" spans="1:5" ht="15.6">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25">
+    <row r="6" spans="1:5" ht="15.6">
       <c r="A6" s="7" t="s">
         <v>198</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25">
+    <row r="7" spans="1:5" ht="15.6">
       <c r="A7" s="7" t="s">
         <v>81</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25">
+    <row r="8" spans="1:5" ht="15.6">
       <c r="A8" s="7" t="s">
         <v>81</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25">
+    <row r="10" spans="1:5" ht="15.6">
       <c r="A10" s="7" t="s">
         <v>116</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25">
+    <row r="11" spans="1:5" ht="15.6">
       <c r="A11" s="7" t="s">
         <v>116</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25">
+    <row r="15" spans="1:5" ht="15.6">
       <c r="A15" s="25" t="s">
         <v>205</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25">
+    <row r="16" spans="1:5" ht="15.6">
       <c r="A16" s="26" t="s">
         <v>264</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25">
+    <row r="17" spans="1:5" ht="15.6">
       <c r="A17" s="26" t="s">
         <v>265</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25">
+    <row r="18" spans="1:5" ht="15.6">
       <c r="A18" s="26" t="s">
         <v>276</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.25">
+    <row r="19" spans="1:5" ht="15.6">
       <c r="A19" s="33" t="s">
         <v>290</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.25">
+    <row r="20" spans="1:5" ht="15.6">
       <c r="A20" s="3" t="s">
         <v>298</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.25">
+    <row r="21" spans="1:5" ht="15.6">
       <c r="A21" s="33" t="s">
         <v>330</v>
       </c>
@@ -6050,16 +6050,16 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
-    <col min="2" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="17.399999999999999">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
+    <row r="2" spans="1:6" ht="15.6">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
+    <row r="3" spans="1:6" ht="15.6">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
+    <row r="4" spans="1:6" ht="15.6">
       <c r="A4" s="11">
         <v>0</v>
       </c>
@@ -6154,14 +6154,14 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="15.6">
       <c r="A2" s="11">
         <v>4</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25">
+    <row r="3" spans="1:3" ht="15.6">
       <c r="A3" s="11">
         <v>4</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25">
+    <row r="4" spans="1:3" ht="15.6">
       <c r="A4" s="11">
         <v>4</v>
       </c>
@@ -6219,17 +6219,17 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="30.875" customWidth="1"/>
-    <col min="3" max="3" width="31.25" customWidth="1"/>
-    <col min="4" max="4" width="45.75" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="4" width="45.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="17.399999999999999">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
+    <row r="2" spans="1:6" ht="15.6">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
+    <row r="3" spans="1:6" ht="15.6">
       <c r="A3" s="11">
         <v>0</v>
       </c>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="379">
   <si>
     <t>登录方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1449,131 +1449,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>系统管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysAdmin@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secAdmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secAdmin@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全保密管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysAudit@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全审计员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加sysAdmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加secAdmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加sysAudit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrapp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加或者添加本角色成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrrz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isomper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysAudit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sysAdmin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sysAdmin@123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>secAdmin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>secAdmin@123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全保密管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysAudit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sysAudit@123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全审计员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加sysAdmin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加secAdmin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加sysAudit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qawsed@123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyrapp1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击添加或者添加本角色成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyrrz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isomper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qawsed@123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyyf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyyg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyyh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyyf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qawsed@123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qawsed@123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyyy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyyz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2236,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B27" sqref="A27:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2292,115 +2300,115 @@
         <v>211</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C3" s="29">
         <v>2</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>349</v>
-      </c>
       <c r="F3" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C4" s="29">
         <v>2</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
       <c r="N4" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -2416,23 +2424,23 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="29"/>
       <c r="B6" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
@@ -2442,7 +2450,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2455,10 +2463,10 @@
         <v>241</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2468,7 +2476,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2481,10 +2489,10 @@
         <v>239</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2494,7 +2502,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2507,10 +2515,10 @@
         <v>240</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
@@ -2520,23 +2528,23 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25" customHeight="1">
       <c r="A10" s="29"/>
       <c r="B10" s="29" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -2546,7 +2554,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
       <c r="N10" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2559,10 +2567,10 @@
         <v>305</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
@@ -2572,23 +2580,23 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="N11" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2611,10 +2619,10 @@
         <v>279</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
@@ -2637,10 +2645,10 @@
         <v>280</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
@@ -2663,10 +2671,10 @@
         <v>281</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>282</v>
@@ -2691,10 +2699,10 @@
         <v>283</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
@@ -2719,10 +2727,10 @@
         <v>284</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="29">
@@ -2753,10 +2761,10 @@
         <v>285</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="29">
@@ -2785,10 +2793,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2798,7 +2806,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2811,10 +2819,10 @@
         <v>278</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -2837,10 +2845,10 @@
         <v>299</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
@@ -2850,7 +2858,7 @@
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
       <c r="N21" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2863,10 +2871,10 @@
         <v>300</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
@@ -2880,7 +2888,7 @@
         <v>301</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2893,10 +2901,10 @@
         <v>302</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -2906,7 +2914,7 @@
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
       <c r="N23" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2919,10 +2927,10 @@
         <v>303</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -2932,7 +2940,7 @@
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
       <c r="N24" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2945,10 +2953,10 @@
         <v>304</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
@@ -2958,23 +2966,23 @@
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
       <c r="N25" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2984,23 +2992,23 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -3016,17 +3024,17 @@
     <row r="28" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3049,10 +3057,10 @@
         <v>245</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -3075,10 +3083,10 @@
         <v>246</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="3"/>
@@ -3101,10 +3109,10 @@
         <v>247</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -3127,10 +3135,10 @@
         <v>248</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -3153,10 +3161,10 @@
         <v>249</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -3179,10 +3187,10 @@
         <v>250</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -3205,10 +3213,10 @@
         <v>251</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -3231,10 +3239,10 @@
         <v>252</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -3257,10 +3265,10 @@
         <v>253</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -3283,10 +3291,10 @@
         <v>254</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -3309,10 +3317,10 @@
         <v>255</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -3328,17 +3336,17 @@
     <row r="40" spans="1:14">
       <c r="A40" s="29"/>
       <c r="B40" s="29" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="F40" s="32" t="s">
         <v>371</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>373</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
@@ -3348,7 +3356,7 @@
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
       <c r="N40" s="29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3361,10 +3369,10 @@
         <v>259</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -3387,10 +3395,10 @@
         <v>260</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -3413,10 +3421,10 @@
         <v>261</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -3439,10 +3447,10 @@
         <v>262</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -3465,10 +3473,10 @@
         <v>270</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -3484,17 +3492,17 @@
     <row r="46" spans="1:14">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -3510,17 +3518,17 @@
     <row r="47" spans="1:14">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -3543,10 +3551,10 @@
         <v>308</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
@@ -3573,10 +3581,10 @@
         <v>316</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
@@ -3603,10 +3611,10 @@
         <v>318</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
@@ -3896,7 +3904,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="14"/>
@@ -3916,7 +3924,7 @@
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13" t="s">
@@ -4000,7 +4008,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="14"/>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="806"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="806" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="add_user" sheetId="23" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="380">
   <si>
     <t>登录方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1205,10 +1205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gyrloginad2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gyrloginad1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1381,14 +1377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>server.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gyraudit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1582,6 +1570,22 @@
   </si>
   <si>
     <t>sysAudit@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrloginad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrloginad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hgcs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2244,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2291,7 +2295,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>119</v>
@@ -2300,115 +2304,115 @@
         <v>211</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C3" s="29">
         <v>2</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C4" s="29">
         <v>2</v>
       </c>
       <c r="D4" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>375</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>378</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
       <c r="N4" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -2424,23 +2428,23 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="29"/>
       <c r="B6" s="29" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
@@ -2450,7 +2454,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2463,10 +2467,10 @@
         <v>241</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2476,7 +2480,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2489,10 +2493,10 @@
         <v>239</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2502,7 +2506,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2515,10 +2519,10 @@
         <v>240</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
@@ -2528,23 +2532,23 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25" customHeight="1">
       <c r="A10" s="29"/>
       <c r="B10" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -2554,23 +2558,23 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
       <c r="N10" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="29"/>
       <c r="B11" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
@@ -2580,23 +2584,23 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="N11" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2619,10 +2623,10 @@
         <v>279</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
@@ -2645,10 +2649,10 @@
         <v>280</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
@@ -2671,10 +2675,10 @@
         <v>281</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>282</v>
@@ -2699,10 +2703,10 @@
         <v>283</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
@@ -2718,31 +2722,31 @@
     <row r="17" spans="1:14">
       <c r="A17" s="29"/>
       <c r="B17" s="30" t="s">
-        <v>284</v>
+        <v>378</v>
       </c>
       <c r="C17" s="29">
         <v>8</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>284</v>
+        <v>377</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="29">
         <v>8</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M17" s="29"/>
       <c r="N17" s="3">
@@ -2752,26 +2756,26 @@
     <row r="18" spans="1:14">
       <c r="A18" s="29"/>
       <c r="B18" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C18" s="29">
         <v>8</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="29">
         <v>10</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
@@ -2793,10 +2797,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2806,7 +2810,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2819,10 +2823,10 @@
         <v>278</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -2838,17 +2842,17 @@
     <row r="21" spans="1:14">
       <c r="A21" s="29"/>
       <c r="B21" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
@@ -2858,23 +2862,23 @@
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
       <c r="N21" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="29"/>
       <c r="B22" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
@@ -2885,26 +2889,26 @@
       </c>
       <c r="L22" s="29"/>
       <c r="M22" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="29"/>
       <c r="B23" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -2914,23 +2918,23 @@
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
       <c r="N23" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="29"/>
       <c r="B24" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -2940,23 +2944,23 @@
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
       <c r="N24" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="29"/>
       <c r="B25" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
@@ -2966,23 +2970,23 @@
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
       <c r="N25" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2992,23 +2996,23 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -3024,17 +3028,17 @@
     <row r="28" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3057,10 +3061,10 @@
         <v>245</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -3083,10 +3087,10 @@
         <v>246</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="3"/>
@@ -3109,10 +3113,10 @@
         <v>247</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -3135,10 +3139,10 @@
         <v>248</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -3161,10 +3165,10 @@
         <v>249</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -3187,10 +3191,10 @@
         <v>250</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -3213,10 +3217,10 @@
         <v>251</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -3239,10 +3243,10 @@
         <v>252</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -3265,10 +3269,10 @@
         <v>253</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -3291,10 +3295,10 @@
         <v>254</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -3317,10 +3321,10 @@
         <v>255</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -3336,17 +3340,17 @@
     <row r="40" spans="1:14">
       <c r="A40" s="29"/>
       <c r="B40" s="29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
@@ -3356,7 +3360,7 @@
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
       <c r="N40" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3369,10 +3373,10 @@
         <v>259</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -3395,10 +3399,10 @@
         <v>260</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -3421,10 +3425,10 @@
         <v>261</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -3447,10 +3451,10 @@
         <v>262</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -3473,10 +3477,10 @@
         <v>270</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -3492,17 +3496,17 @@
     <row r="46" spans="1:14">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -3518,17 +3522,17 @@
     <row r="47" spans="1:14">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -3544,28 +3548,28 @@
     <row r="48" spans="1:14">
       <c r="A48" s="29"/>
       <c r="B48" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C48" s="29"/>
       <c r="D48" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
       <c r="K48" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L48" s="29"/>
       <c r="M48" s="32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N48" s="29" t="s">
         <v>23</v>
@@ -3574,28 +3578,28 @@
     <row r="49" spans="1:14">
       <c r="A49" s="29"/>
       <c r="B49" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
       <c r="J49" s="29"/>
       <c r="K49" s="29" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L49" s="29"/>
       <c r="M49" s="32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N49" s="29" t="s">
         <v>23</v>
@@ -3604,17 +3608,17 @@
     <row r="50" spans="1:14">
       <c r="A50" s="29"/>
       <c r="B50" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
@@ -3710,7 +3714,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3801,10 +3805,10 @@
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C2" s="3">
         <v>3389</v>
@@ -3824,7 +3828,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="3">
         <v>3389</v>
@@ -3904,7 +3908,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="14" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="14"/>
@@ -3924,7 +3928,7 @@
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13" t="s">
@@ -3960,7 +3964,7 @@
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="14" t="s">
@@ -3968,7 +3972,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="14"/>
@@ -4008,7 +4012,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="14"/>
@@ -4056,19 +4060,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="31" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -4477,7 +4481,7 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>187</v>
@@ -4923,7 +4927,7 @@
         <v>79</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>23</v>
@@ -4935,7 +4939,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -5073,7 +5077,7 @@
     </row>
     <row r="8" spans="1:14" ht="15.6">
       <c r="A8" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>116</v>
@@ -5121,7 +5125,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>203</v>
@@ -5294,10 +5298,10 @@
         <v>115</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>293</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>294</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>112</v>
@@ -5318,10 +5322,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>23</v>
@@ -5352,10 +5356,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>23</v>
@@ -5367,7 +5371,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -5378,10 +5382,10 @@
         <v>20</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>23</v>
@@ -5399,13 +5403,13 @@
     </row>
     <row r="19" spans="1:14" ht="15.6">
       <c r="A19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>117</v>
@@ -5432,7 +5436,7 @@
         <v>173</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
@@ -5456,7 +5460,7 @@
         <v>196</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
@@ -5477,10 +5481,10 @@
         <v>186</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
@@ -5495,26 +5499,26 @@
     </row>
     <row r="23" spans="1:14" ht="15.6">
       <c r="A23" s="34" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
@@ -5537,15 +5541,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5565,10 +5569,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -5739,10 +5743,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6">
@@ -5753,7 +5757,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>64</v>
@@ -5971,7 +5975,7 @@
         <v>276</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>114</v>
@@ -5985,24 +5989,24 @@
     </row>
     <row r="19" spans="1:5" ht="15.6">
       <c r="A19" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="C19" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>292</v>
-      </c>
       <c r="D19" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.6">
       <c r="A20" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>24</v>
@@ -6019,19 +6023,19 @@
     </row>
     <row r="21" spans="1:5" ht="15.6">
       <c r="A21" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B21" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -6118,7 +6122,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -6138,7 +6142,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>54</v>
@@ -6199,7 +6203,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6">
@@ -6210,7 +6214,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -6288,7 +6292,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
